--- a/data/spreadsheets/Documentation.xlsx
+++ b/data/spreadsheets/Documentation.xlsx
@@ -5,18 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/Cloned_GitHub_repos/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079B165-A6FD-024B-98E4-D250C46347A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576520AD-7C10-5342-9357-0A90585CE7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15400" yWindow="800" windowWidth="49920" windowHeight="25380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -60,9 +71,6 @@
     <t>Visualisations of the data model of project Alice in DaSCHland, with details of classes and properties</t>
   </si>
   <si>
-    <t>data/Multimedia_Data/Documentation/</t>
-  </si>
-  <si>
     <t>DaSCH</t>
   </si>
   <si>
@@ -109,6 +117,9 @@
   </si>
   <si>
     <t>https://app.rdu-08.dasch.swiss/resource/0854/jI8CCsGYRfmgLqT5d6H1jA</t>
+  </si>
+  <si>
+    <t>data/multimedia/documentation/</t>
   </si>
 </sst>
 </file>
@@ -369,7 +380,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,97 +431,97 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/spreadsheets/Documentation.xlsx
+++ b/data/spreadsheets/Documentation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/Cloned_GitHub_repos/daschland-scripts/data/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576520AD-7C10-5342-9357-0A90585CE7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C781FB6-E346-5A47-B4C4-E32607FBCE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="64340" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>data/multimedia/documentation/</t>
+  </si>
+  <si>
+    <t>Authorship Resource</t>
+  </si>
+  <si>
+    <t>Daniela Subotic, Noémi Villars-Amberg</t>
   </si>
 </sst>
 </file>
@@ -377,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -394,7 +400,7 @@
     <col min="8" max="8" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +425,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -445,8 +454,11 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -471,8 +483,11 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -497,8 +512,11 @@
       <c r="H4" t="s">
         <v>14</v>
       </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -522,6 +540,9 @@
       </c>
       <c r="H5" t="s">
         <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
